--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1521657.068278788</v>
+        <v>1528764.032286262</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5856949.752182485</v>
+        <v>5856949.752182484</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.19384698280639</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994976</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.892417739585656</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>69.3421217705996</v>
+        <v>130.1470570050006</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,23 +1130,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>222.3396163656984</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1272,10 +1272,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>31.60815104066432</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,25 +2123,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>48.58294587322989</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>156.7114550512848</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,55 +2333,55 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>52.24924162573038</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>164.4624917799569</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2476,52 +2476,52 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>126.0633677311771</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,58 +2710,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>64.66314899205665</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.49783921769041</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>106.4852585205975</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,28 +3266,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>7.185390953068242</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>99.13012673870382</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.3233170536452</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>84.47305450481102</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>146.9525391092905</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>33.27932101827127</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,67 +3977,67 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.5327296920134</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>90.91642501047005</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203.958500671572</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C2" t="n">
-        <v>203.958500671572</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D2" t="n">
-        <v>178.5101703859089</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E2" t="n">
-        <v>124.4571107798991</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="F2" t="n">
-        <v>70.4040511738892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064624</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064624</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>203.958500671572</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>203.958500671572</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W2" t="n">
-        <v>203.958500671572</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X2" t="n">
-        <v>203.958500671572</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.958500671572</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>51.89093722176946</v>
+      </c>
+      <c r="C3" t="n">
+        <v>51.89093722176946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.89093722176946</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.89093722176946</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="L3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="M3" t="n">
+        <v>110.2358097604965</v>
+      </c>
+      <c r="N3" t="n">
+        <v>161.0727123199487</v>
+      </c>
+      <c r="O3" t="n">
         <v>214.050116039799</v>
       </c>
-      <c r="C3" t="n">
-        <v>166.4401811388256</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112.3871215328157</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.33406192680584</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.281002320795981</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57.25840604064624</v>
-      </c>
-      <c r="M3" t="n">
-        <v>57.25840604064624</v>
-      </c>
-      <c r="N3" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="O3" t="n">
-        <v>161.0727123199488</v>
-      </c>
       <c r="P3" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.707173599047</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.76023320505686</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>84.76023320505686</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505686</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.707173599047</v>
+        <v>27.95824356358591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D5" t="n">
         <v>761.6974622895962</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>362.4348659156472</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X6" t="n">
-        <v>362.4348659156472</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.4348659156472</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4747,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4896,7 @@
         <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,22 +4905,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
         <v>19.28114311021272</v>
@@ -4942,25 +4942,25 @@
         <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5154,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>227.1326433157456</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
         <v>712.019119383956</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5692,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.9696854242497</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>353.6202092009445</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>168.9696854242497</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X21" t="n">
-        <v>168.9696854242497</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.9696854242497</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>231.2956098588302</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
         <v>829.5248650203655</v>
@@ -6169,28 +6169,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.7661011803829</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>158.7661011803829</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D27" t="n">
-        <v>158.7661011803829</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E27" t="n">
-        <v>158.7661011803829</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>562.1335464321937</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>562.1335464321937</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>326.981438200451</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>326.981438200451</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>326.981438200451</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>326.981438200451</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C30" t="n">
-        <v>728.9050472788936</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>84.59745522340125</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6549,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.1033079837604</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>683.0789437687823</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>475.3186450038284</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6895,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>591.4512093066566</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>591.4512093066566</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>26.53911376987762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>26.53911376987762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>26.53911376987762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,7 +7020,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
         <v>304.2053859195205</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>863.9257143604303</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7117,16 +7117,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W38" t="n">
-        <v>499.3853800778592</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>255.9366034337592</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7257,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
         <v>234.810827406191</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>747.4095280295369</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>747.4095280295369</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>519.185909765926</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="W39" t="n">
-        <v>777.5613083818946</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7348,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7442,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="V41" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="W41" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="X41" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="Y41" t="n">
         <v>495.259035872464</v>
-      </c>
-      <c r="V41" t="n">
-        <v>495.259035872464</v>
-      </c>
-      <c r="W41" t="n">
-        <v>251.810259228364</v>
-      </c>
-      <c r="X41" t="n">
-        <v>251.810259228364</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.9965798960495</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C42" t="n">
-        <v>304.9965798960495</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D42" t="n">
-        <v>304.9965798960495</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E42" t="n">
-        <v>304.9965798960495</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7685,13 +7685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>166.265754478665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>52.8966188862443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>872.2223827727877</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
         <v>182.6921187090427</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8544,10 +8544,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23394,13 +23394,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>201.1924361087609</v>
+        <v>161.9526345551508</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23984,13 +23984,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,25 +24011,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>98.86211969140886</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24105,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>94.98352810963482</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,19 +24285,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>85.09427553748026</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>87.2324913809627</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>135.0690668140378</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,10 +24531,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>74.10136096364452</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,25 +24762,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>80.40606340132723</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25005,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>95.57137317569348</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>99.28772668287993</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,28 +25154,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>312.2938397833332</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25248,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>105.0500532834282</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>1.027707413939311</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.9490329357426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>57.35985405019265</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>167.2219286561086</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25682,19 +25682,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.0341136990839</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>111.7898913751126</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25865,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>56.86390315940168</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>9.241409142173083</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516053</v>
@@ -26326,10 +26326,10 @@
         <v>240932.9751704318</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="H2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="I2" t="n">
         <v>240932.9751704319</v>
@@ -26353,7 +26353,7 @@
         <v>240932.9751704318</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360814.637350784</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>321840.7818943749</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179626.2047776151</v>
+        <v>180266.4776085103</v>
       </c>
       <c r="C6" t="n">
-        <v>164556.9103068004</v>
+        <v>165434.7392108198</v>
       </c>
       <c r="D6" t="n">
-        <v>225133.2324934687</v>
+        <v>226011.0613974881</v>
       </c>
       <c r="E6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="F6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="G6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="H6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="I6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="J6" t="n">
-        <v>169382.8200064754</v>
+        <v>170260.6489104948</v>
       </c>
       <c r="K6" t="n">
-        <v>135127.0992131221</v>
+        <v>136004.9281171414</v>
       </c>
       <c r="L6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="M6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.8810507741</v>
       </c>
       <c r="N6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="O6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.881050774</v>
       </c>
       <c r="P6" t="n">
-        <v>183384.0521467547</v>
+        <v>184261.8810507741</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>329.4891946378766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>353.3635167317617</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27436,10 +27436,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>280.6184229181712</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>125.574663436352</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>97.93537684142012</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>163.3544033590422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>125.1750041878503</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.072124342145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>154.3469453318533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>182.35286139032</v>
+        <v>121.547926155919</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G8" t="n">
-        <v>192.9631211494366</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5814812455281</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570938</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35264,10 +35264,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35495,19 +35495,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528764.032286262</v>
+        <v>1531087.70410013</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>53.51252900994975</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.25778981025229</v>
       </c>
     </row>
     <row r="3">
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -856,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -984,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>130.1470570050006</v>
+        <v>60.27622829416089</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>212.2853856434421</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V12" t="n">
-        <v>70.84795259427446</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.7755410381886</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.97702676147813</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,55 +2098,55 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,16 +2165,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>48.58294587322989</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.84103413332343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2330,61 +2332,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>52.24924162573038</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="28">
@@ -2752,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>64.66314899205665</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,61 +3034,61 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>23.81301614990497</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>49.49783921769041</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>29.9892228523575</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3226,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3266,64 +3268,64 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>99.13012673870382</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.81301614990497</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>114.3233170536452</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>146.9525391092905</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,13 +3872,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.1481656116171</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6806854287134353</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>90.91642501047005</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,64 +4134,64 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.3871215328157</v>
+        <v>173.385681888029</v>
       </c>
       <c r="C2" t="n">
-        <v>112.3871215328157</v>
+        <v>119.3326222820192</v>
       </c>
       <c r="D2" t="n">
-        <v>112.3871215328157</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3871215328157</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="F2" t="n">
         <v>58.33406192680583</v>
@@ -4334,16 +4336,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>110.2358097604965</v>
       </c>
-      <c r="N2" t="n">
-        <v>163.2132134803467</v>
-      </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4364,16 +4366,16 @@
         <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>112.3871215328157</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>112.3871215328157</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.3871215328157</v>
+        <v>173.385681888029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.89093722176946</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
         <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4452,7 +4454,7 @@
         <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.95824356358591</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>27.95824356358591</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>27.95824356358591</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>27.95824356358591</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95824356358591</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4659,7 +4661,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4677,19 +4679,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>526.7184526376595</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>395.2567788952347</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4768,7 +4770,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
         <v>720.6083788665362</v>
@@ -4790,13 +4792,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5121,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>187.4964801302808</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>187.4964801302808</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>717.6598068330284</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="19">
@@ -5692,7 +5694,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5729,19 +5731,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,25 +5773,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>528.0732384820715</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>353.6202092009445</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>735.8335372470253</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>735.8335372470253</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>528.0732384820715</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5929,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C24" t="n">
-        <v>380.2300195200815</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D24" t="n">
-        <v>231.2956098588302</v>
+        <v>97.53226341566398</v>
       </c>
       <c r="E24" t="n">
-        <v>72.05815485337473</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>72.05815485337473</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,13 +6402,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6585,7 +6587,7 @@
         <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>243.8349102288568</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>411.6785506544679</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -7023,40 +7025,40 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>863.9257143604303</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>690.5083698110992</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>690.5083698110992</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U36" t="n">
-        <v>462.2847515474883</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7114,7 +7116,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>747.4095280295369</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>747.4095280295369</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>519.185909765926</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>284.0338015341832</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7350,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>251.810259228364</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>738.7078125165641</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.424473941237</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C42" t="n">
-        <v>473.9875657500345</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N42" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N42" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7518,22 +7520,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="W42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="43">
@@ -7585,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>872.2223827727877</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>698.8050382234566</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>698.8050382234566</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>227.1326433157456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
@@ -7994,7 +7996,7 @@
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8069,13 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8307,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>238.6269471880057</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>374.9551956315293</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23279,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V12" t="n">
-        <v>161.9526345551508</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>56.389187656633</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23747,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>66.41960608993695</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,16 +24053,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>98.86211969140886</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9595530161018</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.1764713530042</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>85.09427553748026</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,7 +24344,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,19 +24405,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="28">
@@ -24640,16 +24642,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24734,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>80.40606340132723</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>95.57137317569348</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25047,16 +25049,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>221.7057603085621</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25114,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,19 +25201,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.027707413939311</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>80.77591565244732</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>199.2828334142264</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.35985405019265</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823863</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>25.75595987902526</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01656308320455</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>156.9643950266875</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.241409142173083</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26316,19 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="F2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
         <v>240932.9751704318</v>
@@ -26338,7 +26340,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="K2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="L2" t="n">
         <v>240932.9751704318</v>
@@ -26347,13 +26349,13 @@
         <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="O2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="P2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="O2" t="n">
-        <v>240932.9751704318</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26427,19 +26429,19 @@
         <v>42017.42535589614</v>
       </c>
       <c r="F4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26451,13 +26453,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26522,10 +26524,10 @@
         <v>180266.4776085103</v>
       </c>
       <c r="C6" t="n">
-        <v>165434.7392108198</v>
+        <v>165434.73921082</v>
       </c>
       <c r="D6" t="n">
-        <v>226011.0613974881</v>
+        <v>226011.0613974879</v>
       </c>
       <c r="E6" t="n">
         <v>184261.881050774</v>
@@ -26546,7 +26548,7 @@
         <v>170260.6489104948</v>
       </c>
       <c r="K6" t="n">
-        <v>136004.9281171414</v>
+        <v>136004.9281171415</v>
       </c>
       <c r="L6" t="n">
         <v>184261.881050774</v>
@@ -26555,13 +26557,13 @@
         <v>184261.8810507741</v>
       </c>
       <c r="N6" t="n">
+        <v>184261.8810507741</v>
+      </c>
+      <c r="O6" t="n">
+        <v>184261.8810507741</v>
+      </c>
+      <c r="P6" t="n">
         <v>184261.881050774</v>
-      </c>
-      <c r="O6" t="n">
-        <v>184261.881050774</v>
-      </c>
-      <c r="P6" t="n">
-        <v>184261.8810507741</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>361.7902085051853</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>280.6184229181712</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.9801488458013</v>
       </c>
     </row>
     <row r="3">
@@ -27464,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>97.93537684142012</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>125.1750041878503</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.3977453746509</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>188.4703195251436</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27704,10 +27706,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27749,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>121.547926155919</v>
+        <v>191.4187548667587</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5906600982693</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27871,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>5.066549668675236</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>15.93831371378155</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>126.5814812455281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34702,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
@@ -34711,10 +34713,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570938</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>104.6525397736754</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37159,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1531087.70410013</v>
+        <v>1462236.407658692</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -661,61 +661,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.96435308057242</v>
+      </c>
+      <c r="E2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.25778981025229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,17 +785,17 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -828,14 +828,14 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="H4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>193.4600505471182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>60.27622829416089</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>64.13863269867674</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.4093399017307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7701852745342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>51.20308350636274</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>181.2921930499176</v>
       </c>
     </row>
     <row r="13">
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>1.809496073036132</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.7755410381886</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>138.1189263353705</v>
       </c>
     </row>
     <row r="16">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.97702676147813</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0.4944642745770648</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,11 +2083,11 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>186.932087391009</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>84.84103413332343</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,23 +2362,23 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>220.2131257424249</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.46860910239674</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="C26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>125.1456920076454</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.62553367015321</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>29.9892228523575</v>
+        <v>102.9664640366239</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3228,22 +3228,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>119.3888130423743</v>
+        <v>78.94281254009718</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>3.433706607631537</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1481656116171</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>241.0142888776591</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="Y44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6806854287134353</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.066486900108</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.385681888029</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3326222820192</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>65.27956267600931</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="E2" t="n">
-        <v>65.27956267600931</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
         <v>4.28100232079598</v>
@@ -4333,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.385681888029</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4388,19 +4388,19 @@
         <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,34 +4412,34 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
         <v>159.9970564337892</v>
@@ -4454,7 +4454,7 @@
         <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="D4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84.76023320505688</v>
+      </c>
+      <c r="G4" t="n">
         <v>58.33406192680583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4512,16 +4512,16 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
         <v>84.76023320505688</v>
@@ -4530,10 +4530,10 @@
         <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>151.3424131191315</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>472.7618635207803</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>472.7618635207803</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.7618635207803</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="7">
@@ -4746,28 +4746,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.1694235828572</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>677.1847609088302</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>780.9337281874871</v>
       </c>
     </row>
     <row r="13">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>281.5846883638847</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C15" t="n">
-        <v>281.5846883638847</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,16 +5360,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>717.6598068330284</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W15" t="n">
-        <v>489.4361885694175</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X15" t="n">
-        <v>281.5846883638847</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.5846883638847</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="16">
@@ -5460,7 +5460,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>43.24439370388544</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>963.5576966474271</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>963.5576966474271</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>963.5576966474271</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>735.3340783838162</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>491.8853017397161</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="19">
@@ -5694,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>674.0673357695734</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>674.0673357695734</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>674.0673357695734</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>430.6185591254734</v>
       </c>
     </row>
     <row r="22">
@@ -5931,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>97.53226341566398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>246.4666730769152</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.4666730769152</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6165,31 +6165,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6402,25 +6402,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>164.9777062711242</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>243.8349102288568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07461146390284</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6876,19 +6876,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>670.0450503124422</v>
+        <v>783.1474113765551</v>
       </c>
       <c r="U36" t="n">
-        <v>670.0450503124422</v>
+        <v>783.1474113765551</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>547.9953031448124</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="37">
@@ -7116,25 +7116,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>787.171420448546</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>787.171420448546</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>787.171420448546</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
     </row>
     <row r="40">
@@ -7353,22 +7353,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.1764243339896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1764243339896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>439.1764243339896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
         <v>20.03527576299844</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>674.3285325657323</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>674.3285325657323</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>439.1764243339896</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W42" t="n">
-        <v>439.1764243339896</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X42" t="n">
-        <v>439.1764243339896</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y42" t="n">
-        <v>439.1764243339896</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7587,34 +7587,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G44" t="n">
         <v>262.7299197543128</v>
@@ -7648,7 +7648,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7672,25 +7672,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
         <v>506.1786963984129</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.2758270930352</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C45" t="n">
-        <v>272.8227978119081</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D45" t="n">
-        <v>272.8227978119081</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>736.7172697529513</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>736.7172697529513</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.2758270930352</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,10 +8783,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,10 +9017,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10208,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>24.39050272738672</v>
       </c>
     </row>
     <row r="13">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.4284425830174</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23627,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>56.389187656633</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>67.56376944193386</v>
       </c>
     </row>
     <row r="16">
@@ -23700,10 +23700,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>256.7375800297467</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>66.41960608993695</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>99.66336987806606</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>13.23264130381264</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9595530161018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>107.53913272771</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>80.1764713530042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>41.38749164222199</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.1474515333243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24730,25 +24730,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.9076499797141</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>3.205468035336452</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24855,13 +24855,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387443</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>199.2828334142264</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>221.7057603085621</v>
+        <v>148.7285191242957</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2403360996553</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>80.77591565244732</v>
+        <v>121.2219161547244</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>327.6110753204746</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>119.4884220823224</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>196.7310220871901</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>138.8566050823863</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>85.01656308320455</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>101.6909038562026</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>98.46051323810809</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>275.320613684763</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9643950266875</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0.8748951808667869</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,10 +26079,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474237</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474237</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474239</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382467.2715474238</v>
+        <v>382467.2715474237</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382467.2715474239</v>
+        <v>382467.2715474238</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
@@ -26337,7 +26337,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="J2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="K2" t="n">
         <v>240932.9751704319</v>
@@ -26349,7 +26349,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="O2" t="n">
         <v>240932.9751704319</v>
@@ -26426,22 +26426,22 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="H4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180266.4776085103</v>
+        <v>180266.4776085102</v>
       </c>
       <c r="C6" t="n">
-        <v>165434.73921082</v>
+        <v>165434.7392108198</v>
       </c>
       <c r="D6" t="n">
         <v>226011.0613974879</v>
       </c>
       <c r="E6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="F6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="G6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="H6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307335</v>
       </c>
       <c r="I6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="J6" t="n">
-        <v>170260.6489104948</v>
+        <v>158042.6382904542</v>
       </c>
       <c r="K6" t="n">
-        <v>136004.9281171415</v>
+        <v>123786.9174971011</v>
       </c>
       <c r="L6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307335</v>
       </c>
       <c r="M6" t="n">
-        <v>184261.8810507741</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="N6" t="n">
-        <v>184261.8810507741</v>
+        <v>172043.8704307335</v>
       </c>
       <c r="O6" t="n">
-        <v>184261.8810507741</v>
+        <v>172043.8704307336</v>
       </c>
       <c r="P6" t="n">
-        <v>184261.881050774</v>
+        <v>172043.8704307335</v>
       </c>
     </row>
   </sheetData>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>339.7186885401105</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9801488458013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>126.3212547626098</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>141.8290697929902</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5477458235686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>188.4703195251436</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>16.7044082558092</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>191.4187548667587</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27818,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>290.5444089220062</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>5.066549668675236</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.93831371378155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27946,16 +27946,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,13 +27988,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>200.4918996545569</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,10 +35503,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,10 +35737,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36928,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
